--- a/config/casedata.xlsx
+++ b/config/casedata.xlsx
@@ -1,84 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edz/Documents/lab/imooc/config/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E0BEE5-A417-48C5-9CA6-11A348725C16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve"> zhouting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>zhouting</t>
   </si>
   <si>
-    <t xml:space="preserve"> email_error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>/Users/tingjio/Documents/lab/practice/img/CropRegister.png</t>
   </si>
   <si>
-    <t>1292871494@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>email_error</t>
   </si>
   <si>
     <t>请输入有效的电子邮件地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111wq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> /Users/edz/Documents/lab/imooc/img/CropRegister.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,26 +70,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,12 +133,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -196,14 +166,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -231,6 +218,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,64 +386,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="53.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1">
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+      <c r="C1" s="1">
+        <v>111111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>